--- a/forecast_summary_B0CCWLMK56.xlsx
+++ b/forecast_summary_B0CCWLMK56.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>6.50778188946406</v>
       </c>
       <c r="D2" t="n">
-        <v>10.55474549362468</v>
+        <v>10.74243955470615</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -511,6 +516,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>8.286987731216655</v>
       </c>
       <c r="D3" t="n">
-        <v>12.08758314439321</v>
+        <v>12.22123944916915</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
@@ -547,6 +555,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>8.020391506835542</v>
       </c>
       <c r="D4" t="n">
-        <v>12.23519989881922</v>
+        <v>12.24332654369473</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -583,6 +594,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>5.975469151866703</v>
       </c>
       <c r="D5" t="n">
-        <v>10.13787486071953</v>
+        <v>9.937620117655133</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -619,6 +633,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>4.273135494274561</v>
       </c>
       <c r="D6" t="n">
-        <v>8.19421024714492</v>
+        <v>8.071176211991041</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -655,6 +672,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>4.885430811377572</v>
       </c>
       <c r="D7" t="n">
-        <v>8.677311383906124</v>
+        <v>8.950369741042692</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -691,6 +711,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>7.85250968747641</v>
       </c>
       <c r="D8" t="n">
-        <v>11.90248342675573</v>
+        <v>11.72499844182983</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -727,6 +750,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>11.61011866938307</v>
       </c>
       <c r="D9" t="n">
-        <v>15.16932773129071</v>
+        <v>15.69609011914526</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -763,6 +789,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>14.64350152193841</v>
       </c>
       <c r="D10" t="n">
-        <v>18.67511045841184</v>
+        <v>18.35500923847595</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -799,6 +828,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>16.29797548188414</v>
       </c>
       <c r="D11" t="n">
-        <v>20.18403456631823</v>
+        <v>20.10031972071259</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -835,6 +867,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>16.15698403338169</v>
       </c>
       <c r="D12" t="n">
-        <v>19.97457577542773</v>
+        <v>20.03003255702183</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -871,6 +906,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>13.56269760805703</v>
       </c>
       <c r="D13" t="n">
-        <v>17.58179391925569</v>
+        <v>17.64315538166911</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>8.503378970075772</v>
       </c>
       <c r="D14" t="n">
-        <v>12.69904673334592</v>
+        <v>12.5388548965762</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>2.723982663209817</v>
       </c>
       <c r="D15" t="n">
-        <v>6.712856025052751</v>
+        <v>6.868685631246823</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -979,6 +1023,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.9909094029403467</v>
       </c>
       <c r="D16" t="n">
-        <v>2.970395733184791</v>
+        <v>3.15902247701841</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-1.231395713241102</v>
       </c>
       <c r="D17" t="n">
-        <v>2.771566304787257</v>
+        <v>2.908981605697728</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.6028653854770132</v>
       </c>
       <c r="D18" t="n">
-        <v>4.853005452109738</v>
+        <v>4.471678951117117</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>1.8071723282304</v>
       </c>
       <c r="D19" t="n">
-        <v>5.683732163008711</v>
+        <v>5.707868989964743</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>1.283654318123285</v>
       </c>
       <c r="D20" t="n">
-        <v>5.283979419646791</v>
+        <v>5.517737883754627</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.4332216968114575</v>
       </c>
       <c r="D21" t="n">
-        <v>4.620556734934351</v>
+        <v>4.399371623957119</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t xml:space="preserve">B650M C V2                    </t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
